--- a/CLEAN/MarchSales2025_clean.xlsx
+++ b/CLEAN/MarchSales2025_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0011938</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0011939</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0011940</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0011941</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -808,7 +808,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0011942</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -878,7 +878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0011943</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -948,7 +948,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0011944</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1022,7 +1022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0011945</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0011946</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1162,7 +1162,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0011947</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1236,7 +1236,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0011948</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0011949</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1376,7 +1376,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0011950</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1446,7 +1446,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0011951</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1516,7 +1516,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0011952</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1586,7 +1586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0011953</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1656,7 +1656,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0011954</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1726,7 +1726,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0011955</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1796,7 +1796,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0011956</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1866,7 +1866,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0011957</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1936,7 +1936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0011958</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2010,7 +2010,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0011959</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2080,7 +2080,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0011960</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2150,7 +2150,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011961</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2220,7 +2220,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0011962</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2294,7 +2294,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0011963</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2364,7 +2364,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0011964</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2434,7 +2434,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0011965</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2504,7 +2504,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0011966</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2574,7 +2574,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0011967</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2644,7 +2644,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0011968</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2714,7 +2714,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0011969</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2784,7 +2784,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0011970</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2854,7 +2854,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011971</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2924,7 +2924,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0011972</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2994,7 +2994,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0011973</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3064,7 +3064,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0011974</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3134,7 +3134,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0011975</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3204,7 +3204,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0011976</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3274,7 +3274,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0011977</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3344,7 +3344,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0011978</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3414,7 +3414,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0011979</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3484,7 +3484,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0011980</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3554,7 +3554,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0011981</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3624,7 +3624,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0011982</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3694,7 +3694,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0011983</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3768,7 +3768,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0011984</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3838,7 +3838,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0011985</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3908,7 +3908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0011986</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3978,7 +3978,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0011987</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4048,7 +4048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0011988</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4118,7 +4118,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0011989</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4188,7 +4188,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0011990</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4262,7 +4262,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0011991</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4332,7 +4332,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0011992</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4402,7 +4402,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011993</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4472,7 +4472,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0011994</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4542,7 +4542,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0011995</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4612,7 +4612,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0011996</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4682,7 +4682,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0011997</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4752,7 +4752,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0011998</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4822,7 +4822,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0011999</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4892,7 +4892,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0012000</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4962,7 +4962,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0012001</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5032,7 +5032,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0012002</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5102,7 +5102,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0012003</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5172,7 +5172,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0012004</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5242,7 +5242,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0012005</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5312,7 +5312,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0012006</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5382,7 +5382,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0012007</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5452,7 +5452,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0012008</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5522,7 +5522,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0012009</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5592,7 +5592,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0012010</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5662,7 +5662,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0012011</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5732,7 +5732,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0012012</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5802,7 +5802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0012013</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5872,7 +5872,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0012014</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5942,7 +5942,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0012015</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6012,7 +6012,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0012016</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6082,7 +6082,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0012017</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6152,7 +6152,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0012018</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6222,7 +6222,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0012019</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6292,7 +6292,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0012020</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6366,7 +6366,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0012021</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6440,7 +6440,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0012022</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6514,7 +6514,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0012023</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6584,7 +6584,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012024</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6654,7 +6654,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0012025</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6724,7 +6724,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0012026</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6798,7 +6798,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0012027</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6872,7 +6872,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0012028</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6942,7 +6942,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0012029</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7012,7 +7012,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0012030</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7082,7 +7082,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0012031</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7152,7 +7152,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0012032</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7222,7 +7222,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0012033</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7292,7 +7292,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0012034</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7362,7 +7362,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0012035</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7432,7 +7432,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0012036</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7502,7 +7502,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0012037</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7572,7 +7572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0012038</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7642,7 +7642,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0012039</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7712,7 +7712,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0012040</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7782,7 +7782,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0012041</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7852,7 +7852,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0012042</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7922,7 +7922,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0012043</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7992,7 +7992,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0012044</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8062,7 +8062,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0012045</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8132,7 +8132,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0012046</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8202,7 +8202,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0012047</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8272,7 +8272,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0012048</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8346,7 +8346,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0012049</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8416,7 +8416,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0012050</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8486,7 +8486,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0012051</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8556,7 +8556,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0012052</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8630,7 +8630,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0012053</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8700,7 +8700,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0012054</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8770,7 +8770,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0012055</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8840,7 +8840,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0012056</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8910,7 +8910,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0012057</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8980,7 +8980,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0012058</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9050,7 +9050,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0012059</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9120,7 +9120,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0012060</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9190,7 +9190,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0012061</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9260,7 +9260,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0012062</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9330,7 +9330,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0012063</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9400,7 +9400,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0012064</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9470,7 +9470,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0012065</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9544,7 +9544,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0012066</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9614,7 +9614,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0012067</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9684,7 +9684,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0012068</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9758,7 +9758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0012069</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9828,7 +9828,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0012070</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9898,7 +9898,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0012071</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9968,7 +9968,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0012072</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10038,7 +10038,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0012073</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10108,7 +10108,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0012074</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10178,7 +10178,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0012075</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10248,7 +10248,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0012076</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10318,7 +10318,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0012077</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10392,7 +10392,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0012078</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10462,7 +10462,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0012079</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10536,7 +10536,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0012080</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10606,7 +10606,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0012081</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10676,7 +10676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0012082</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10746,7 +10746,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0012083</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10816,7 +10816,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0012084</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10886,7 +10886,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0012085</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10956,7 +10956,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0012086</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11026,7 +11026,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0012087</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11096,7 +11096,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0012088</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11166,7 +11166,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0012089</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11236,7 +11236,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0012090</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11306,7 +11306,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0012091</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11376,7 +11376,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012092</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11446,7 +11446,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0012093</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11516,7 +11516,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0012094</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11586,7 +11586,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0012095</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11656,7 +11656,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0012096</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11726,7 +11726,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0012097</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11796,7 +11796,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0012098</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11866,7 +11866,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0012099</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11936,7 +11936,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0012100</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12006,7 +12006,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0012101</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12076,7 +12076,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0012102</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12150,7 +12150,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0012103</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12220,7 +12220,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0012104</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12290,7 +12290,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0012105</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12360,7 +12360,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0012106</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12430,7 +12430,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0012107</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12500,7 +12500,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0012108</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12570,7 +12570,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0012109</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12644,7 +12644,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0012110</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12714,7 +12714,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0012111</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12784,7 +12784,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0012112</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12854,7 +12854,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0012113</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12924,7 +12924,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0012114</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -12994,7 +12994,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0012115</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13064,7 +13064,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0012116</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13134,7 +13134,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0012117</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13204,7 +13204,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0012118</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13274,7 +13274,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0012119</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13348,7 +13348,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0012120</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13418,7 +13418,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0012121</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13488,7 +13488,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0012122</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13558,7 +13558,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0012123</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13628,7 +13628,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0012124</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13698,7 +13698,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0012125</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13768,7 +13768,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0012126</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13842,7 +13842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0012127</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13912,7 +13912,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0012128</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -13982,7 +13982,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0012129</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14052,7 +14052,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0012130</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14122,7 +14122,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0012131</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14192,7 +14192,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0012132</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14262,7 +14262,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012133</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14336,7 +14336,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0012134</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14410,7 +14410,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0012135</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14480,7 +14480,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0012136</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14550,7 +14550,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0012137</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14620,7 +14620,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0012138</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14690,7 +14690,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0012139</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14760,7 +14760,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012140</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14830,7 +14830,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0012141</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14900,7 +14900,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0012142</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14970,7 +14970,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0012143</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15044,7 +15044,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0012144</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15114,7 +15114,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0012145</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15184,7 +15184,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0012146</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15254,7 +15254,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0012147</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15324,7 +15324,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0012148</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15394,7 +15394,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0012149</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15468,7 +15468,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0012150</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15542,7 +15542,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0012151</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15612,7 +15612,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0012152</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15682,7 +15682,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0012153</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15752,7 +15752,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0012154</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15822,7 +15822,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0012155</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15892,7 +15892,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0012156</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15962,7 +15962,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0012157</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16032,7 +16032,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0012158</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16102,7 +16102,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0012159</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16172,7 +16172,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0012160</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16242,7 +16242,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0012161</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16312,7 +16312,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0012162</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16382,7 +16382,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0012163</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16452,7 +16452,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0012164</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16522,7 +16522,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0012165</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16592,7 +16592,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0012166</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16662,7 +16662,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0012167</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16732,7 +16732,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0012168</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16802,7 +16802,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0012169</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16872,7 +16872,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0012170</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16946,7 +16946,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0012171</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17016,7 +17016,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0012172</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17086,7 +17086,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0012173</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17156,7 +17156,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0012174</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17230,7 +17230,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0012175</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17304,7 +17304,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0012176</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17374,7 +17374,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012177</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17444,7 +17444,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012178</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17518,7 +17518,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0012179</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17592,7 +17592,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0012180</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17666,7 +17666,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0012181</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17736,7 +17736,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0012182</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17810,7 +17810,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0012183</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17880,7 +17880,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0012184</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17954,7 +17954,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0012185</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18028,7 +18028,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0012186</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18098,7 +18098,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0012187</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18168,7 +18168,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0012188</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18238,7 +18238,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0012189</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18308,7 +18308,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0012190</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18378,7 +18378,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0012191</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18448,7 +18448,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0012192</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18518,7 +18518,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0012193</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18588,7 +18588,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0012194</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18658,7 +18658,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0012195</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18728,7 +18728,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0012196</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18798,7 +18798,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012197</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18868,7 +18868,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0012198</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18938,7 +18938,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0012199</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19008,7 +19008,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0012200</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19078,7 +19078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0012201</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19148,7 +19148,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012202</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19218,7 +19218,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0012203</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19288,7 +19288,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0012204</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19362,7 +19362,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0012205</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19432,7 +19432,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0012206</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19502,7 +19502,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0012207</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19576,7 +19576,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0012208</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19650,7 +19650,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0012209</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19720,7 +19720,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0012210</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19790,7 +19790,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0012211</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19860,7 +19860,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0012212</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19930,7 +19930,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0012213</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -20000,7 +20000,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0012214</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20074,7 +20074,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0012215</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20144,7 +20144,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0012216</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20214,7 +20214,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0012217</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20284,7 +20284,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0012218</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20354,7 +20354,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0012219</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20424,7 +20424,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0012220</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20494,7 +20494,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0012221</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20564,7 +20564,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0012222</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20634,7 +20634,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0012223</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20704,7 +20704,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0012224</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20774,7 +20774,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0012225</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20848,7 +20848,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0012226</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20918,7 +20918,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012227</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -20988,7 +20988,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0012228</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21058,7 +21058,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0012229</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21128,7 +21128,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0012230</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21198,7 +21198,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0012231</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21268,7 +21268,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0012232</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21338,7 +21338,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0012233</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21412,7 +21412,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0012234</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21482,7 +21482,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0012235</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21552,7 +21552,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0012236</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21626,7 +21626,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0012237</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21700,7 +21700,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0012238</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21770,7 +21770,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0012239</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21840,7 +21840,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0012240</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21910,7 +21910,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0012241</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21980,7 +21980,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0012242</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22050,7 +22050,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0012243</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22120,7 +22120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0012244</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22190,7 +22190,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0012245</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22260,7 +22260,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0012246</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22330,7 +22330,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0012247</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22404,7 +22404,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0012248</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22474,7 +22474,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0012249</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22548,7 +22548,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0012250</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22618,7 +22618,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0012251</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22688,7 +22688,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0012252</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22758,7 +22758,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0012253</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22828,7 +22828,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0012254</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22898,7 +22898,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0012255</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22968,7 +22968,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0012256</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23038,7 +23038,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0012257</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23108,7 +23108,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0012258</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23178,7 +23178,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0012259</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23248,7 +23248,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0012260</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23322,7 +23322,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0012261</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23392,7 +23392,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0012262</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23462,7 +23462,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0012263</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23532,7 +23532,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0012264</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23602,7 +23602,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0012265</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23676,7 +23676,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0012266</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23746,7 +23746,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0012267</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23816,7 +23816,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0012268</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23886,7 +23886,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0012269</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23956,7 +23956,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0012270</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24026,7 +24026,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0012271</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24096,7 +24096,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0012272</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24166,7 +24166,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0012273</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24236,7 +24236,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0012274</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24306,7 +24306,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0012275</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24376,7 +24376,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0012276</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24446,7 +24446,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0012277</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24516,7 +24516,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0012278</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24586,7 +24586,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0012279</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24656,7 +24656,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0012280</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24726,7 +24726,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0012281</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24796,7 +24796,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0012282</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24866,7 +24866,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0012283</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24936,7 +24936,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0012284</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25006,7 +25006,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0012285</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25076,7 +25076,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0012286</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25146,7 +25146,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0012287</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25220,7 +25220,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0012288</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25294,7 +25294,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0012289</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25364,7 +25364,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0012290</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25434,7 +25434,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0012291</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25504,7 +25504,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0012292</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25574,7 +25574,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0012293</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25644,7 +25644,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0012294</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25714,7 +25714,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0012295</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25784,7 +25784,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0012296</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25854,7 +25854,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0012297</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25928,7 +25928,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0012298</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -25998,7 +25998,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0012299</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26068,7 +26068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0012300</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26138,7 +26138,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012301</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26208,7 +26208,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0012302</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26278,7 +26278,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0012303</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26348,7 +26348,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0012304</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26418,7 +26418,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0012305</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26492,7 +26492,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0012306</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26562,7 +26562,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0012307</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26632,7 +26632,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0012308</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26702,7 +26702,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0012309</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26772,7 +26772,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0012310</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26842,7 +26842,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0012311</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26912,7 +26912,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0012312</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -26982,7 +26982,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0012313</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27052,7 +27052,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0012314</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27122,7 +27122,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0012315</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27192,7 +27192,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0012316</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27262,7 +27262,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0012317</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27332,7 +27332,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0012318</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27402,7 +27402,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0012319</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27472,7 +27472,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0012320</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27542,7 +27542,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0012321</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27612,7 +27612,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0012322</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27682,7 +27682,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0012323</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27752,7 +27752,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0012324</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27826,7 +27826,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0012325</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27900,7 +27900,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0012326</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -27970,7 +27970,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0012327</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28040,7 +28040,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0012328</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28110,7 +28110,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0012329</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28180,7 +28180,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0012330</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28250,7 +28250,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0012331</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28320,7 +28320,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0012332</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28390,7 +28390,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012333</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28460,7 +28460,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0012334</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28530,7 +28530,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0012335</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28600,7 +28600,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0012336</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28670,7 +28670,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0012337</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28740,7 +28740,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0012338</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28814,7 +28814,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0012339</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28884,7 +28884,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0012340</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -28954,7 +28954,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0012341</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29024,7 +29024,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0012342</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29098,7 +29098,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0012343</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29168,7 +29168,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0012344</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29238,7 +29238,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0012345</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29308,7 +29308,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0012346</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29382,7 +29382,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0012347</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29452,7 +29452,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0012348</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29522,7 +29522,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0012349</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29592,7 +29592,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0012350</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29662,7 +29662,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0012351</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29736,7 +29736,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0012352</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29806,7 +29806,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0012353</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29876,7 +29876,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0012354</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29946,7 +29946,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0012355</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30016,7 +30016,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0012356</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30090,7 +30090,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0012357</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30160,7 +30160,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0012358</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30230,7 +30230,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0012359</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30300,7 +30300,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012360</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30370,7 +30370,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012361</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30440,7 +30440,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0012362</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30514,7 +30514,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0012363</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30584,7 +30584,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0012364</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30654,7 +30654,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0012365</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30724,7 +30724,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0012366</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30794,7 +30794,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0012367</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30868,7 +30868,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0012368</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -30938,7 +30938,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0012369</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -31008,7 +31008,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0012370</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31078,7 +31078,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0012371</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31148,7 +31148,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0012372</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31218,7 +31218,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0012373</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31288,7 +31288,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0012374</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31358,7 +31358,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0012375</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31428,7 +31428,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0012376</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31498,7 +31498,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0012377</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31568,7 +31568,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0012378</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31642,7 +31642,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0012379</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31712,7 +31712,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0012380</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31782,7 +31782,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0012381</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -31852,7 +31852,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0012382</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -31922,7 +31922,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0012383</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -31992,7 +31992,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0012384</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -32066,7 +32066,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0012385</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -32140,7 +32140,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0012386</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -32210,7 +32210,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0012387</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -32280,7 +32280,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0012388</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -32350,7 +32350,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0012389</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -32420,7 +32420,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0012390</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -32490,7 +32490,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0012391</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -32560,7 +32560,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0012392</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -32630,7 +32630,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0012393</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -32700,7 +32700,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0012394</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -32770,7 +32770,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0012395</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -32844,7 +32844,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0012396</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -32914,7 +32914,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0012397</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -32984,7 +32984,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0012398</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -33054,7 +33054,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0012399</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -33124,7 +33124,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0012400</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -33194,7 +33194,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0012401</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -33264,7 +33264,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0012402</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -33338,7 +33338,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0012403</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -33412,7 +33412,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0012404</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -33486,7 +33486,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0012405</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -33560,7 +33560,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0012406</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -33634,7 +33634,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0012407</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -33704,7 +33704,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0012408</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -33774,7 +33774,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0012409</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -33844,7 +33844,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0012410</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -33918,7 +33918,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0012411</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -33992,7 +33992,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0012412</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -34062,7 +34062,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0012413</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -34132,7 +34132,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0012414</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -34202,7 +34202,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0012415</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -34272,7 +34272,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0012416</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -34346,7 +34346,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0012417</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -34416,7 +34416,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0012418</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -34486,7 +34486,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0012419</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -34556,7 +34556,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0012420</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -34630,7 +34630,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0012421</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -34700,7 +34700,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0012422</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -34770,7 +34770,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0012423</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -34840,7 +34840,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0012424</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -34910,7 +34910,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0012425</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -34980,7 +34980,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0012426</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -35050,7 +35050,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0012427</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -35120,7 +35120,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0012428</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -35190,7 +35190,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0012429</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -35260,7 +35260,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0012430</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -35330,7 +35330,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0012431</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -35404,7 +35404,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0012432</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -35474,7 +35474,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0012433</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -35544,7 +35544,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0012434</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -35614,7 +35614,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0012435</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -35684,7 +35684,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0012436</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -35758,7 +35758,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0012437</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -35828,7 +35828,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0012438</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -35898,7 +35898,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0012439</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -35972,7 +35972,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0012440</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -36042,7 +36042,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0012441</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -36112,7 +36112,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0012442</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -36182,7 +36182,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0012443</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -36256,7 +36256,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0012444</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -36326,7 +36326,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0012445</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -36396,7 +36396,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0012446</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -36466,7 +36466,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0012447</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -36536,7 +36536,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0012448</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -36606,7 +36606,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0012449</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -36680,7 +36680,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0012450</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -36750,7 +36750,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0012451</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -36820,7 +36820,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0012452</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -36890,7 +36890,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0012453</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -36960,7 +36960,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0012454</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -37034,7 +37034,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0012455</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -37104,7 +37104,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0012456</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -37174,7 +37174,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0012457</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -37244,7 +37244,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0012458</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -37314,7 +37314,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0012459</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -37384,7 +37384,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0012460</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -37454,7 +37454,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0012461</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -37524,7 +37524,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0012462</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -37594,7 +37594,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0012463</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -37664,7 +37664,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0012464</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -37738,7 +37738,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0012465</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -37808,7 +37808,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0012466</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -37878,7 +37878,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0012467</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -37948,7 +37948,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0012468</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -38018,7 +38018,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0012469</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -38092,7 +38092,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0012470</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -38166,7 +38166,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0012471</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -38236,7 +38236,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0012472</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -38306,7 +38306,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0012473</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -38376,7 +38376,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0012474</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -38446,7 +38446,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0012475</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -38516,7 +38516,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0012476</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -38586,7 +38586,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0012477</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -38656,7 +38656,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0012478</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -38730,7 +38730,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0012479</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -38800,7 +38800,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0012480</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -38870,7 +38870,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0012481</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -38944,7 +38944,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0012482</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -39014,7 +39014,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0012483</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -39088,7 +39088,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0012484</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -39158,7 +39158,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0012485</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -39228,7 +39228,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0012486</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -39298,7 +39298,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0012487</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -39368,7 +39368,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0012488</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -39438,7 +39438,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0012489</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -39508,7 +39508,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0012490</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -39578,7 +39578,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0012491</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -39652,7 +39652,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0012492</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -39722,7 +39722,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0012493</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -39792,7 +39792,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0012494</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -39862,7 +39862,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0012495</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -39932,7 +39932,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0012496</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -40006,7 +40006,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0012497</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -40076,7 +40076,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0012498</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -40146,7 +40146,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0012499</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -40216,7 +40216,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0012500</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -40286,7 +40286,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0012501</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -40360,7 +40360,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0012502</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -40430,7 +40430,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0012503</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -40500,7 +40500,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0012504</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -40570,7 +40570,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0012505</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -40640,7 +40640,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0012506</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -40714,7 +40714,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0012507</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -40784,7 +40784,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0012508</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -40854,7 +40854,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0012509</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -40928,7 +40928,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0012510</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -40998,7 +40998,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0012511</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -41068,7 +41068,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0012512</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -41138,7 +41138,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0012513</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -41208,7 +41208,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0012514</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -41278,7 +41278,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0012515</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -41348,7 +41348,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0012516</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -41418,7 +41418,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0012517</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -41492,7 +41492,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0012518</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -41562,7 +41562,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0012519</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -41636,7 +41636,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0012520</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -41710,7 +41710,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0012521</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -41780,7 +41780,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0012522</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -41850,7 +41850,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0012523</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -41920,7 +41920,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0012524</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -41990,7 +41990,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0012525</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -42060,7 +42060,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0012526</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -42134,7 +42134,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0012527</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -42204,7 +42204,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0012528</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -42278,7 +42278,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0012529</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -42348,7 +42348,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0012530</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -42418,7 +42418,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0012531</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -42488,7 +42488,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0012532</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -42558,7 +42558,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0012533</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -42628,7 +42628,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0012534</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -42698,7 +42698,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0012535</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -42768,7 +42768,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0012536</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -42838,7 +42838,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0012537</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -42908,7 +42908,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0012538</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -42978,7 +42978,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0012539</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -43048,7 +43048,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0012540</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -43118,7 +43118,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0012541</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -43188,7 +43188,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0012542</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -43258,7 +43258,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0012543</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -43328,7 +43328,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0012544</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -43398,7 +43398,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0012545</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -43468,7 +43468,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0012546</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -43538,7 +43538,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0012547</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -43612,7 +43612,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0012548</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -43682,7 +43682,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0012549</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -43756,7 +43756,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0012550</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -43830,7 +43830,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0012551</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -43900,7 +43900,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0012552</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -43974,7 +43974,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0012553</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -44048,7 +44048,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0012554</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -44122,7 +44122,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0012555</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -44196,7 +44196,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0012556</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -44270,7 +44270,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0012557</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -44344,7 +44344,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000621</t>
+          <t>ORD_0012558</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -44418,7 +44418,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000622</t>
+          <t>ORD_0012559</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -44492,7 +44492,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000623</t>
+          <t>ORD_0012560</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -44566,7 +44566,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000624</t>
+          <t>ORD_0012561</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -44640,7 +44640,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000625</t>
+          <t>ORD_0012562</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -44714,7 +44714,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000626</t>
+          <t>ORD_0012563</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -44788,7 +44788,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000627</t>
+          <t>ORD_0012564</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -44862,7 +44862,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000628</t>
+          <t>ORD_0012565</t>
         </is>
       </c>
       <c r="B629" t="n">
